--- a/app/static/uploads/excels/IRELAND.xlsx
+++ b/app/static/uploads/excels/IRELAND.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\OneDrive\Escritorio\Proyectos\Ferretería\ferreteria-back\app\static\uploads\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\OneDrive\Escritorio\Proyectos\Ferreteria\ferreteria-back\app\static\uploads\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA28184-745E-4E52-82CE-60E29BD0AF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7125D34-3ED7-4F8C-BF57-8F4348E062A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1440" windowWidth="19328" windowHeight="10478" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -35,18 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="179">
   <si>
-    <t>LATEX SUPER INTERIOR-EXTERIOR</t>
-  </si>
-  <si>
-    <t>LATEX SUPER EXTERIOR-INTERIOR</t>
-  </si>
-  <si>
-    <t>LATEX INTERIOR IRELAND</t>
-  </si>
-  <si>
-    <t>LATEX EXTERIOR IRELAND</t>
-  </si>
-  <si>
     <t>LATEX LAVABLE PREMIUN INTERIOR</t>
   </si>
   <si>
@@ -570,6 +558,18 @@
   </si>
   <si>
     <t>PRECIO</t>
+  </si>
+  <si>
+    <t>LATEX SUPER INTERIOR-EXTERIOR-Violeta</t>
+  </si>
+  <si>
+    <t>LATEX SUPER EXTERIOR-INTERIOR-Naranja</t>
+  </si>
+  <si>
+    <t>LATEX INTERIOR IRELAND-Verde</t>
+  </si>
+  <si>
+    <t>LATEX EXTERIOR IRELAND-Azul</t>
   </si>
 </sst>
 </file>
@@ -1048,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D548"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1062,16 +1062,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1079,10 +1079,10 @@
         <v>23</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D2" s="9">
         <v>5392.1760001814209</v>
@@ -1093,10 +1093,10 @@
         <v>24</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D3" s="9">
         <v>12694.949453815028</v>
@@ -1107,10 +1107,10 @@
         <v>25</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D4" s="9">
         <v>22838.893708817533</v>
@@ -1129,10 +1129,10 @@
         <v>26</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>1</v>
+        <v>176</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D6" s="12">
         <v>7380.0801090977875</v>
@@ -1143,10 +1143,10 @@
         <v>27</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>1</v>
+        <v>176</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D7" s="12">
         <v>17316.936034343431</v>
@@ -1157,10 +1157,10 @@
         <v>28</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>1</v>
+        <v>176</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D8" s="12">
         <v>30656.18390469674</v>
@@ -1179,10 +1179,10 @@
         <v>518</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D10" s="3">
         <v>4463.8017059999993</v>
@@ -1193,10 +1193,10 @@
         <v>519</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3">
         <v>10016.392440600001</v>
@@ -1207,10 +1207,10 @@
         <v>520</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D12" s="3">
         <v>17981.346037200001</v>
@@ -1229,10 +1229,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>2</v>
+        <v>177</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D14" s="15">
         <v>2850.0555903823847</v>
@@ -1243,10 +1243,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>2</v>
+        <v>177</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D15" s="15">
         <v>9557.3683591755889</v>
@@ -1257,10 +1257,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>2</v>
+        <v>177</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D16" s="15">
         <v>20828.06243045974</v>
@@ -1271,10 +1271,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>2</v>
+        <v>177</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D17" s="15">
         <v>35837.641307914302</v>
@@ -1293,10 +1293,10 @@
         <v>5</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D19" s="18">
         <v>4173.9300217866357</v>
@@ -1307,10 +1307,10 @@
         <v>6</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D20" s="18">
         <v>12822.434324324096</v>
@@ -1321,10 +1321,10 @@
         <v>7</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D21" s="18">
         <v>28194.713185050481</v>
@@ -1335,10 +1335,10 @@
         <v>8</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D22" s="18">
         <v>50106.654485724044</v>
@@ -1357,10 +1357,10 @@
         <v>1073</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D24" s="3">
         <v>17445.597914620608</v>
@@ -1371,10 +1371,10 @@
         <v>1074</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D25" s="3">
         <v>38696.901614544346</v>
@@ -1385,10 +1385,10 @@
         <v>1075</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D26" s="3">
         <v>70465.5559184054</v>
@@ -1407,10 +1407,10 @@
         <v>1069</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D28" s="3">
         <v>21355.706101091408</v>
@@ -1421,10 +1421,10 @@
         <v>1070</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D29" s="3">
         <v>49141.906986137263</v>
@@ -1435,10 +1435,10 @@
         <v>1071</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D30" s="3">
         <v>86455.151881471786</v>
@@ -1457,10 +1457,10 @@
         <v>1079</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D32" s="3">
         <v>3265.0659651485071</v>
@@ -1471,10 +1471,10 @@
         <v>1080</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D33" s="3">
         <v>10701.3608</v>
@@ -1485,10 +1485,10 @@
         <v>1081</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D34" s="3">
         <v>23487.3704</v>
@@ -1499,10 +1499,10 @@
         <v>1082</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D35" s="3">
         <v>43125.139200000005</v>
@@ -1518,10 +1518,10 @@
         <v>498</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D37" s="3">
         <v>7013.1554875665688</v>
@@ -1532,10 +1532,10 @@
         <v>499</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D38" s="3">
         <v>26230.994992133117</v>
@@ -1546,10 +1546,10 @@
         <v>500</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D39" s="3">
         <v>56658.446665225994</v>
@@ -1560,10 +1560,10 @@
         <v>501</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D40" s="3">
         <v>107887.53526474866</v>
@@ -1574,10 +1574,10 @@
         <v>423</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D41" s="3">
         <v>7013.1554875665688</v>
@@ -1588,10 +1588,10 @@
         <v>424</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D42" s="3">
         <v>26230.994992133117</v>
@@ -1602,10 +1602,10 @@
         <v>425</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D43" s="3">
         <v>56658.446665225994</v>
@@ -1616,10 +1616,10 @@
         <v>426</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D44" s="3">
         <v>107887.53526474866</v>
@@ -1630,10 +1630,10 @@
         <v>490</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D45" s="3">
         <v>7013.1554875665688</v>
@@ -1644,10 +1644,10 @@
         <v>491</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D46" s="3">
         <v>26230.994992133117</v>
@@ -1658,10 +1658,10 @@
         <v>492</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D47" s="3">
         <v>56658.446665225994</v>
@@ -1672,10 +1672,10 @@
         <v>493</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D48" s="3">
         <v>107887.53526474866</v>
@@ -1686,10 +1686,10 @@
         <v>486</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D49" s="3">
         <v>7013.1554875665688</v>
@@ -1700,10 +1700,10 @@
         <v>487</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D50" s="3">
         <v>26230.994992133117</v>
@@ -1714,10 +1714,10 @@
         <v>488</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D51" s="3">
         <v>56658.446665225994</v>
@@ -1728,10 +1728,10 @@
         <v>489</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D52" s="3">
         <v>107887.53526474866</v>
@@ -1742,10 +1742,10 @@
         <v>524</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D53" s="3">
         <v>7013.1554875665688</v>
@@ -1756,10 +1756,10 @@
         <v>525</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D54" s="3">
         <v>26230.994992133117</v>
@@ -1770,10 +1770,10 @@
         <v>526</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D55" s="3">
         <v>56658.446665225994</v>
@@ -1784,10 +1784,10 @@
         <v>527</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D56" s="3">
         <v>107887.53526474866</v>
@@ -1798,10 +1798,10 @@
         <v>494</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D57" s="3">
         <v>7013.1554875665688</v>
@@ -1812,10 +1812,10 @@
         <v>495</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D58" s="3">
         <v>26230.994992133117</v>
@@ -1826,10 +1826,10 @@
         <v>496</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D59" s="3">
         <v>56658.446665225994</v>
@@ -1840,10 +1840,10 @@
         <v>497</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D60" s="3">
         <v>107887.53526474866</v>
@@ -1854,10 +1854,10 @@
         <v>1094</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D61" s="3">
         <v>7013.1554875665688</v>
@@ -1868,10 +1868,10 @@
         <v>1095</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D62" s="3">
         <v>26230.994992133117</v>
@@ -1882,10 +1882,10 @@
         <v>1096</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D63" s="3">
         <v>56658.446665225994</v>
@@ -1896,10 +1896,10 @@
         <v>1097</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D64" s="3">
         <v>107887.53526474866</v>
@@ -1910,10 +1910,10 @@
         <v>1110</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D65" s="3">
         <v>7013.1554875665688</v>
@@ -1924,10 +1924,10 @@
         <v>1111</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D66" s="3">
         <v>26230.994992133117</v>
@@ -1938,10 +1938,10 @@
         <v>1112</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D67" s="3">
         <v>56658.446665225994</v>
@@ -1952,10 +1952,10 @@
         <v>1113</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D68" s="3">
         <v>107887.53526474866</v>
@@ -1966,10 +1966,10 @@
         <v>1098</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D69" s="3">
         <v>7013.1554875665688</v>
@@ -1980,10 +1980,10 @@
         <v>1099</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D70" s="3">
         <v>26230.994992133117</v>
@@ -1994,10 +1994,10 @@
         <v>1100</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D71" s="3">
         <v>56658.446665225994</v>
@@ -2008,10 +2008,10 @@
         <v>1101</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D72" s="3">
         <v>107887.53526474866</v>
@@ -2022,10 +2022,10 @@
         <v>1120</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D73" s="3">
         <v>5394.2684619914053</v>
@@ -2036,10 +2036,10 @@
         <v>1121</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D74" s="3">
         <v>16525.903733380026</v>
@@ -2050,10 +2050,10 @@
         <v>1122</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D75" s="3">
         <v>36713.689197342559</v>
@@ -2064,10 +2064,10 @@
         <v>1123</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D76" s="3">
         <v>65503.192825559927</v>
@@ -2078,10 +2078,10 @@
         <v>482</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D77" s="3">
         <v>5394.2684619914053</v>
@@ -2092,10 +2092,10 @@
         <v>483</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D78" s="3">
         <v>16525.903733380026</v>
@@ -2106,10 +2106,10 @@
         <v>484</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D79" s="3">
         <v>36713.689197342559</v>
@@ -2120,10 +2120,10 @@
         <v>485</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D80" s="3">
         <v>65503.192825559927</v>
@@ -2134,10 +2134,10 @@
         <v>470</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D81" s="3">
         <v>5394.2684619914053</v>
@@ -2148,10 +2148,10 @@
         <v>471</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D82" s="3">
         <v>16525.903733380026</v>
@@ -2162,10 +2162,10 @@
         <v>472</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D83" s="3">
         <v>36713.689197342559</v>
@@ -2176,10 +2176,10 @@
         <v>473</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D84" s="3">
         <v>65503.192825559927</v>
@@ -2190,10 +2190,10 @@
         <v>474</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D85" s="3">
         <v>5394.2684619914053</v>
@@ -2204,10 +2204,10 @@
         <v>475</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D86" s="3">
         <v>16525.903733380026</v>
@@ -2218,10 +2218,10 @@
         <v>476</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D87" s="3">
         <v>36713.689197342559</v>
@@ -2232,10 +2232,10 @@
         <v>477</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D88" s="3">
         <v>65503.192825559927</v>
@@ -2246,10 +2246,10 @@
         <v>478</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D89" s="3">
         <v>5394.2684619914053</v>
@@ -2260,10 +2260,10 @@
         <v>479</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D90" s="3">
         <v>16525.903733380026</v>
@@ -2274,10 +2274,10 @@
         <v>480</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D91" s="3">
         <v>36713.689197342559</v>
@@ -2288,10 +2288,10 @@
         <v>481</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D92" s="3">
         <v>65503.192825559927</v>
@@ -2302,10 +2302,10 @@
         <v>175</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D93" s="3">
         <v>5331.8869442812584</v>
@@ -2316,10 +2316,10 @@
         <v>174</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D94" s="3">
         <v>15190.914540640277</v>
@@ -2330,10 +2330,10 @@
         <v>176</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D95" s="3">
         <v>36229.655934852577</v>
@@ -2344,10 +2344,10 @@
         <v>177</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D96" s="3">
         <v>62194.202080672039</v>
@@ -2366,10 +2366,10 @@
         <v>281</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D98" s="3">
         <v>5715.2733552082072</v>
@@ -2380,10 +2380,10 @@
         <v>282</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D99" s="3">
         <v>16379.553830262823</v>
@@ -2394,10 +2394,10 @@
         <v>283</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D100" s="3">
         <v>34664.759230271906</v>
@@ -2408,10 +2408,10 @@
         <v>284</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D101" s="3">
         <v>65096.361494104742</v>
@@ -2427,10 +2427,10 @@
         <v>510</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D103" s="3">
         <v>3498.9966565615618</v>
@@ -2441,10 +2441,10 @@
         <v>511</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D104" s="3">
         <v>11554.876540852612</v>
@@ -2455,10 +2455,10 @@
         <v>512</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D105" s="3">
         <v>26532.93886604959</v>
@@ -2469,10 +2469,10 @@
         <v>513</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D106" s="3">
         <v>49703.773850512676</v>
@@ -2491,10 +2491,10 @@
         <v>15</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D108" s="3">
         <v>6886.733195320382</v>
@@ -2505,10 +2505,10 @@
         <v>16</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D109" s="3">
         <v>19878.387194847986</v>
@@ -2519,10 +2519,10 @@
         <v>17</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D110" s="3">
         <v>46417.505362180164</v>
@@ -2533,10 +2533,10 @@
         <v>18</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D111" s="3">
         <v>83329.839478929178</v>
@@ -2555,10 +2555,10 @@
         <v>417</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D113" s="3">
         <v>3498.9966565615618</v>
@@ -2569,10 +2569,10 @@
         <v>418</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D114" s="3">
         <v>11554.876540852612</v>
@@ -2583,10 +2583,10 @@
         <v>419</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D115" s="3">
         <v>26532.93886604959</v>
@@ -2597,10 +2597,10 @@
         <v>420</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D116" s="3">
         <v>49703.773850512676</v>
@@ -2619,10 +2619,10 @@
         <v>387</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D118" s="3">
         <v>4545.6198981429334</v>
@@ -2633,10 +2633,10 @@
         <v>388</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D119" s="3">
         <v>13862.559491143988</v>
@@ -2647,10 +2647,10 @@
         <v>389</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D120" s="3">
         <v>33459.453356796505</v>
@@ -2661,10 +2661,10 @@
         <v>390</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D121" s="3">
         <v>61447.52776443211</v>
@@ -2683,10 +2683,10 @@
         <v>395</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D123" s="3">
         <v>7650.1534200000006</v>
@@ -2697,10 +2697,10 @@
         <v>396</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D124" s="3">
         <v>26447.295420000002</v>
@@ -2719,10 +2719,10 @@
         <v>193</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D126" s="3">
         <v>890.62367420664714</v>
@@ -2733,10 +2733,10 @@
         <v>194</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D127" s="3">
         <v>1663.3979475741744</v>
@@ -2747,10 +2747,10 @@
         <v>195</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D128" s="3">
         <v>8210.7045853537948</v>
@@ -2769,10 +2769,10 @@
         <v>19</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D130" s="3">
         <v>3224.3446966432725</v>
@@ -2783,10 +2783,10 @@
         <v>20</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D131" s="3">
         <v>10149.992777421987</v>
@@ -2797,10 +2797,10 @@
         <v>21</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D132" s="3">
         <v>27012.929988430431</v>
@@ -2811,10 +2811,10 @@
         <v>22</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D133" s="3">
         <v>50501.304226237538</v>
@@ -2833,10 +2833,10 @@
         <v>9</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D135" s="3">
         <v>874.20765791026815</v>
@@ -2847,10 +2847,10 @@
         <v>192</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D136" s="3">
         <v>1265.3917585509876</v>
@@ -2861,10 +2861,10 @@
         <v>10</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D137" s="3">
         <v>2109.2750675743787</v>
@@ -2875,10 +2875,10 @@
         <v>11</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D138" s="3">
         <v>7938.914538584525</v>
@@ -2889,10 +2889,10 @@
         <v>12</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D139" s="3">
         <v>16579.621151408217</v>
@@ -2903,10 +2903,10 @@
         <v>13</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D140" s="3">
         <v>31374.004563347531</v>
@@ -2925,7 +2925,7 @@
         <v>14</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C142" s="6"/>
       <c r="D142" s="3">
@@ -2942,10 +2942,10 @@
         <v>40</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D144" s="3">
         <v>2665.2420926425657</v>
@@ -2956,10 +2956,10 @@
         <v>39</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D145" s="3">
         <v>4684.5077736229759</v>
@@ -2970,10 +2970,10 @@
         <v>38</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D146" s="3">
         <v>7277.0578734690116</v>
@@ -2984,10 +2984,10 @@
         <v>34</v>
       </c>
       <c r="B147" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C147" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="C147" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="D147" s="3">
         <v>27037.999545410305</v>
@@ -2998,10 +2998,10 @@
         <v>49</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D148" s="3">
         <v>131965.36006267404</v>
@@ -3012,10 +3012,10 @@
         <v>79</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D149" s="3">
         <v>2665.2420926425657</v>
@@ -3026,10 +3026,10 @@
         <v>80</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D150" s="3">
         <v>4684.5077736229759</v>
@@ -3040,10 +3040,10 @@
         <v>81</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D151" s="3">
         <v>7277.0578734690116</v>
@@ -3054,10 +3054,10 @@
         <v>82</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D152" s="3">
         <v>27037.999545410305</v>
@@ -3068,10 +3068,10 @@
         <v>1178</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D153" s="3">
         <v>131965.36006267404</v>
@@ -3082,10 +3082,10 @@
         <v>99</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D154" s="3">
         <v>2665.2420926425657</v>
@@ -3096,10 +3096,10 @@
         <v>100</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D155" s="3">
         <v>4684.5077736229759</v>
@@ -3110,10 +3110,10 @@
         <v>101</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D156" s="3">
         <v>7277.0578734690116</v>
@@ -3124,10 +3124,10 @@
         <v>102</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D157" s="3">
         <v>27037.999545410305</v>
@@ -3138,10 +3138,10 @@
         <v>348</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D158" s="3">
         <v>131965.36006267404</v>
@@ -3152,10 +3152,10 @@
         <v>200</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D159" s="3">
         <v>2665.2420926425657</v>
@@ -3166,10 +3166,10 @@
         <v>201</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D160" s="3">
         <v>4684.5077736229759</v>
@@ -3180,10 +3180,10 @@
         <v>202</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D161" s="3">
         <v>7277.0578734690116</v>
@@ -3194,10 +3194,10 @@
         <v>203</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D162" s="3">
         <v>27037.999545410305</v>
@@ -3208,10 +3208,10 @@
         <v>447</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D163" s="3">
         <v>131965.36006267404</v>
@@ -3222,10 +3222,10 @@
         <v>206</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D164" s="3">
         <v>2665.2420926425657</v>
@@ -3236,10 +3236,10 @@
         <v>207</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D165" s="3">
         <v>4684.5077736229759</v>
@@ -3250,10 +3250,10 @@
         <v>208</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D166" s="3">
         <v>7277.0578734690116</v>
@@ -3264,10 +3264,10 @@
         <v>209</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D167" s="3">
         <v>27037.999545410305</v>
@@ -3278,10 +3278,10 @@
         <v>466</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D168" s="3">
         <v>131965.36006267404</v>
@@ -3292,10 +3292,10 @@
         <v>87</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D169" s="3">
         <v>2665.2420926425657</v>
@@ -3306,10 +3306,10 @@
         <v>88</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D170" s="3">
         <v>4684.5077736229759</v>
@@ -3320,10 +3320,10 @@
         <v>89</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D171" s="3">
         <v>7277.0578734690116</v>
@@ -3334,10 +3334,10 @@
         <v>90</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D172" s="3">
         <v>27037.999545410305</v>
@@ -3348,10 +3348,10 @@
         <v>459</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D173" s="3">
         <v>131965.36006267404</v>
@@ -3362,10 +3362,10 @@
         <v>76</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D174" s="3">
         <v>2665.2420926425657</v>
@@ -3376,10 +3376,10 @@
         <v>77</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D175" s="3">
         <v>4684.5077736229759</v>
@@ -3390,10 +3390,10 @@
         <v>36</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D176" s="3">
         <v>7277.0578734690116</v>
@@ -3404,10 +3404,10 @@
         <v>78</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D177" s="3">
         <v>27037.999545410305</v>
@@ -3418,10 +3418,10 @@
         <v>360</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D178" s="3">
         <v>131965.36006267404</v>
@@ -3440,10 +3440,10 @@
         <v>37</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D180" s="3">
         <v>2149.4806158604488</v>
@@ -3454,10 +3454,10 @@
         <v>31</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D181" s="3">
         <v>3615.8506067007529</v>
@@ -3468,10 +3468,10 @@
         <v>50</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D182" s="3">
         <v>5835.2965418805388</v>
@@ -3482,10 +3482,10 @@
         <v>51</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D183" s="3">
         <v>21252.087594656856</v>
@@ -3496,10 +3496,10 @@
         <v>339</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D184" s="3">
         <v>100945.9947496961</v>
@@ -3510,10 +3510,10 @@
         <v>83</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D185" s="3">
         <v>2149.4806158604488</v>
@@ -3524,10 +3524,10 @@
         <v>84</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D186" s="3">
         <v>3615.8506067007529</v>
@@ -3538,10 +3538,10 @@
         <v>85</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D187" s="3">
         <v>5835.2965418805388</v>
@@ -3552,10 +3552,10 @@
         <v>86</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D188" s="3">
         <v>21252.087594656856</v>
@@ -3564,10 +3564,10 @@
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" s="4"/>
       <c r="B189" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D189" s="3">
         <v>100945.9947496961</v>
@@ -3578,10 +3578,10 @@
         <v>60</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D190" s="3">
         <v>2149.4806158604488</v>
@@ -3592,10 +3592,10 @@
         <v>61</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D191" s="3">
         <v>3615.8506067007529</v>
@@ -3606,10 +3606,10 @@
         <v>62</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D192" s="3">
         <v>5835.2965418805388</v>
@@ -3620,10 +3620,10 @@
         <v>63</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D193" s="3">
         <v>21252.087594656856</v>
@@ -3634,10 +3634,10 @@
         <v>452</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D194" s="3">
         <v>100945.9947496961</v>
@@ -3648,10 +3648,10 @@
         <v>52</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D195" s="3">
         <v>2149.4806158604488</v>
@@ -3662,10 +3662,10 @@
         <v>53</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D196" s="3">
         <v>3615.8506067007529</v>
@@ -3676,10 +3676,10 @@
         <v>54</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D197" s="3">
         <v>5835.2965418805388</v>
@@ -3690,10 +3690,10 @@
         <v>55</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D198" s="3">
         <v>21252.087594656856</v>
@@ -3704,10 +3704,10 @@
         <v>449</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D199" s="3">
         <v>100945.9947496961</v>
@@ -3718,10 +3718,10 @@
         <v>64</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D200" s="3">
         <v>2149.4806158604488</v>
@@ -3732,10 +3732,10 @@
         <v>65</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D201" s="3">
         <v>3615.8506067007529</v>
@@ -3746,10 +3746,10 @@
         <v>66</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D202" s="3">
         <v>5835.2965418805388</v>
@@ -3760,10 +3760,10 @@
         <v>67</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D203" s="3">
         <v>21252.087594656856</v>
@@ -3774,10 +3774,10 @@
         <v>455</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D204" s="3">
         <v>100945.9947496961</v>
@@ -3788,10 +3788,10 @@
         <v>68</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D205" s="3">
         <v>2149.4806158604488</v>
@@ -3802,10 +3802,10 @@
         <v>69</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D206" s="3">
         <v>3615.8506067007529</v>
@@ -3816,10 +3816,10 @@
         <v>70</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D207" s="3">
         <v>5835.2965418805388</v>
@@ -3830,10 +3830,10 @@
         <v>71</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D208" s="3">
         <v>21252.087594656856</v>
@@ -3844,10 +3844,10 @@
         <v>453</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D209" s="3">
         <v>100945.9947496961</v>
@@ -3858,10 +3858,10 @@
         <v>214</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D210" s="3">
         <v>2149.4806158604488</v>
@@ -3872,10 +3872,10 @@
         <v>215</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D211" s="3">
         <v>3615.8506067007529</v>
@@ -3886,10 +3886,10 @@
         <v>216</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D212" s="3">
         <v>5835.2965418805388</v>
@@ -3900,10 +3900,10 @@
         <v>217</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D213" s="3">
         <v>21252.087594656856</v>
@@ -3914,10 +3914,10 @@
         <v>456</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D214" s="3">
         <v>100945.9947496961</v>
@@ -3928,10 +3928,10 @@
         <v>72</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D215" s="3">
         <v>2149.4806158604488</v>
@@ -3942,10 +3942,10 @@
         <v>73</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D216" s="3">
         <v>3615.8506067007529</v>
@@ -3956,10 +3956,10 @@
         <v>74</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D217" s="3">
         <v>5835.2965418805388</v>
@@ -3970,10 +3970,10 @@
         <v>75</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D218" s="3">
         <v>21252.087594656856</v>
@@ -3984,10 +3984,10 @@
         <v>454</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D219" s="3">
         <v>100945.9947496961</v>
@@ -3998,10 +3998,10 @@
         <v>247</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D220" s="3">
         <v>2149.4806158604488</v>
@@ -4012,10 +4012,10 @@
         <v>248</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D221" s="3">
         <v>3615.8506067007529</v>
@@ -4026,10 +4026,10 @@
         <v>249</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D222" s="3">
         <v>5835.2965418805388</v>
@@ -4040,10 +4040,10 @@
         <v>250</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D223" s="3">
         <v>21252.087594656856</v>
@@ -4052,10 +4052,10 @@
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" s="4"/>
       <c r="B224" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D224" s="3">
         <v>100945.9947496961</v>
@@ -4066,10 +4066,10 @@
         <v>210</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D225" s="3">
         <v>2149.4806158604488</v>
@@ -4080,10 +4080,10 @@
         <v>211</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D226" s="3">
         <v>3615.8506067007529</v>
@@ -4094,10 +4094,10 @@
         <v>212</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D227" s="3">
         <v>5835.2965418805388</v>
@@ -4108,10 +4108,10 @@
         <v>213</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D228" s="3">
         <v>21252.087594656856</v>
@@ -4122,10 +4122,10 @@
         <v>451</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D229" s="3">
         <v>100945.9947496961</v>
@@ -4136,10 +4136,10 @@
         <v>241</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D230" s="3">
         <v>2149.4806158604488</v>
@@ -4150,10 +4150,10 @@
         <v>240</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D231" s="3">
         <v>3615.8506067007529</v>
@@ -4164,10 +4164,10 @@
         <v>239</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D232" s="3">
         <v>5835.2965418805388</v>
@@ -4178,10 +4178,10 @@
         <v>242</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D233" s="3">
         <v>21252.087594656856</v>
@@ -4192,10 +4192,10 @@
         <v>445</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D234" s="3">
         <v>100945.9947496961</v>
@@ -4206,10 +4206,10 @@
         <v>233</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D235" s="3">
         <v>2149.4806158604488</v>
@@ -4220,10 +4220,10 @@
         <v>232</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D236" s="3">
         <v>3615.8506067007529</v>
@@ -4234,10 +4234,10 @@
         <v>231</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D237" s="3">
         <v>5835.2965418805388</v>
@@ -4248,10 +4248,10 @@
         <v>234</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D238" s="3">
         <v>21252.087594656856</v>
@@ -4262,10 +4262,10 @@
         <v>458</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D239" s="3">
         <v>100945.9947496961</v>
@@ -4276,10 +4276,10 @@
         <v>243</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D240" s="3">
         <v>2149.4806158604488</v>
@@ -4290,10 +4290,10 @@
         <v>244</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D241" s="3">
         <v>3615.8506067007529</v>
@@ -4304,10 +4304,10 @@
         <v>245</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D242" s="3">
         <v>5835.2965418805388</v>
@@ -4318,10 +4318,10 @@
         <v>246</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D243" s="3">
         <v>21252.087594656856</v>
@@ -4332,10 +4332,10 @@
         <v>361</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D244" s="3">
         <v>100945.9947496961</v>
@@ -4346,10 +4346,10 @@
         <v>91</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D245" s="3">
         <v>2149.4806158604488</v>
@@ -4360,10 +4360,10 @@
         <v>92</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D246" s="3">
         <v>3615.8506067007529</v>
@@ -4374,10 +4374,10 @@
         <v>93</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D247" s="3">
         <v>5835.2965418805388</v>
@@ -4388,10 +4388,10 @@
         <v>94</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D248" s="3">
         <v>21252.087594656856</v>
@@ -4402,10 +4402,10 @@
         <v>469</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D249" s="3">
         <v>100945.9947496961</v>
@@ -4416,10 +4416,10 @@
         <v>179</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D250" s="3">
         <v>2149.4806158604488</v>
@@ -4430,10 +4430,10 @@
         <v>180</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D251" s="3">
         <v>3615.8506067007529</v>
@@ -4444,10 +4444,10 @@
         <v>181</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D252" s="3">
         <v>5835.2965418805388</v>
@@ -4458,10 +4458,10 @@
         <v>182</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D253" s="3">
         <v>21252.087594656856</v>
@@ -4472,10 +4472,10 @@
         <v>448</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D254" s="3">
         <v>100945.9947496961</v>
@@ -4486,10 +4486,10 @@
         <v>227</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D255" s="3">
         <v>2149.4806158604488</v>
@@ -4500,10 +4500,10 @@
         <v>228</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D256" s="3">
         <v>3615.8506067007529</v>
@@ -4514,10 +4514,10 @@
         <v>229</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D257" s="3">
         <v>5835.2965418805388</v>
@@ -4528,10 +4528,10 @@
         <v>230</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D258" s="3">
         <v>21252.087594656856</v>
@@ -4542,10 +4542,10 @@
         <v>467</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D259" s="3">
         <v>100945.9947496961</v>
@@ -4556,10 +4556,10 @@
         <v>56</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D260" s="3">
         <v>2149.4806158604488</v>
@@ -4570,10 +4570,10 @@
         <v>57</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D261" s="3">
         <v>3615.8506067007529</v>
@@ -4584,10 +4584,10 @@
         <v>58</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D262" s="3">
         <v>5835.2965418805388</v>
@@ -4598,10 +4598,10 @@
         <v>59</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D263" s="3">
         <v>21252.087594656856</v>
@@ -4612,10 +4612,10 @@
         <v>446</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D264" s="3">
         <v>100945.9947496961</v>
@@ -4626,10 +4626,10 @@
         <v>95</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D265" s="3">
         <v>2149.4806158604488</v>
@@ -4640,10 +4640,10 @@
         <v>96</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D266" s="3">
         <v>3615.8506067007529</v>
@@ -4654,10 +4654,10 @@
         <v>97</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D267" s="3">
         <v>5835.2965418805388</v>
@@ -4668,10 +4668,10 @@
         <v>98</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D268" s="3">
         <v>21252.087594656856</v>
@@ -4682,10 +4682,10 @@
         <v>528</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D269" s="3">
         <v>100945.9947496961</v>
@@ -4696,10 +4696,10 @@
         <v>183</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D270" s="3">
         <v>2149.4806158604488</v>
@@ -4710,10 +4710,10 @@
         <v>184</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D271" s="3">
         <v>3615.8506067007529</v>
@@ -4724,10 +4724,10 @@
         <v>185</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D272" s="3">
         <v>5835.2965418805388</v>
@@ -4738,10 +4738,10 @@
         <v>1114</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D273" s="3">
         <v>21252.087594656856</v>
@@ -4750,10 +4750,10 @@
     <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" s="4"/>
       <c r="B274" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D274" s="3">
         <v>100945.9947496961</v>
@@ -4764,10 +4764,10 @@
         <v>1109</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C275" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D275" s="3">
         <v>2149.4806158604488</v>
@@ -4778,10 +4778,10 @@
         <v>1108</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D276" s="3">
         <v>3615.8506067007529</v>
@@ -4792,10 +4792,10 @@
         <v>1107</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D277" s="3">
         <v>5835.2965418805388</v>
@@ -4806,10 +4806,10 @@
         <v>1115</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D278" s="3">
         <v>21252.087594656856</v>
@@ -4818,10 +4818,10 @@
     <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279" s="4"/>
       <c r="B279" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D279" s="3">
         <v>100945.9947496961</v>
@@ -4832,10 +4832,10 @@
         <v>237</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D280" s="3">
         <v>2149.4806158604488</v>
@@ -4846,10 +4846,10 @@
         <v>236</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D281" s="3">
         <v>3615.8506067007529</v>
@@ -4860,10 +4860,10 @@
         <v>235</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D282" s="3">
         <v>5835.2965418805388</v>
@@ -4874,10 +4874,10 @@
         <v>238</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D283" s="3">
         <v>21252.087594656856</v>
@@ -4886,10 +4886,10 @@
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" s="4"/>
       <c r="B284" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D284" s="3">
         <v>100945.9947496961</v>
@@ -4900,10 +4900,10 @@
         <v>225</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C285" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D285" s="3">
         <v>2149.4806158604488</v>
@@ -4914,10 +4914,10 @@
         <v>224</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D286" s="3">
         <v>3615.8506067007529</v>
@@ -4928,10 +4928,10 @@
         <v>223</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C287" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D287" s="3">
         <v>5835.2965418805388</v>
@@ -4942,10 +4942,10 @@
         <v>226</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D288" s="3">
         <v>21252.087594656856</v>
@@ -4956,10 +4956,10 @@
         <v>450</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C289" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D289" s="3">
         <v>100945.9947496961</v>
@@ -4970,10 +4970,10 @@
         <v>221</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D290" s="3">
         <v>2149.4806158604488</v>
@@ -4984,10 +4984,10 @@
         <v>219</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D291" s="3">
         <v>3615.8506067007529</v>
@@ -4998,10 +4998,10 @@
         <v>218</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D292" s="3">
         <v>5835.2965418805388</v>
@@ -5012,10 +5012,10 @@
         <v>222</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D293" s="3">
         <v>21252.087594656856</v>
@@ -5026,10 +5026,10 @@
         <v>463</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C294" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D294" s="3">
         <v>100945.9947496961</v>
@@ -5040,10 +5040,10 @@
         <v>260</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C295" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D295" s="3">
         <v>2149.4806158604488</v>
@@ -5054,10 +5054,10 @@
         <v>259</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D296" s="3">
         <v>3615.8506067007529</v>
@@ -5068,10 +5068,10 @@
         <v>258</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C297" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D297" s="3">
         <v>5835.2965418805388</v>
@@ -5082,10 +5082,10 @@
         <v>261</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D298" s="3">
         <v>21252.087594656856</v>
@@ -5096,10 +5096,10 @@
         <v>457</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D299" s="3">
         <v>100945.9947496961</v>
@@ -5118,10 +5118,10 @@
         <v>128</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C301" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D301" s="3">
         <v>1771.6436718579969</v>
@@ -5132,10 +5132,10 @@
         <v>129</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C302" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D302" s="3">
         <v>2982.4106621613605</v>
@@ -5146,10 +5146,10 @@
         <v>130</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C303" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D303" s="3">
         <v>5304.939690072616</v>
@@ -5160,10 +5160,10 @@
         <v>131</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D304" s="3">
         <v>17926.352336969001</v>
@@ -5174,10 +5174,10 @@
         <v>337</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C305" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D305" s="3">
         <v>85146.407516534906</v>
@@ -5188,10 +5188,10 @@
         <v>120</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C306" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D306" s="3">
         <v>1771.6436718579969</v>
@@ -5202,10 +5202,10 @@
         <v>121</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C307" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D307" s="3">
         <v>2982.4106621613605</v>
@@ -5216,10 +5216,10 @@
         <v>122</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C308" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D308" s="3">
         <v>5304.939690072616</v>
@@ -5230,10 +5230,10 @@
         <v>123</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C309" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D309" s="3">
         <v>17296.346896362938</v>
@@ -5244,10 +5244,10 @@
         <v>461</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C310" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D310" s="3">
         <v>82146.407516534891</v>
@@ -5258,10 +5258,10 @@
         <v>132</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C311" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D311" s="3">
         <v>1771.6436718579969</v>
@@ -5272,10 +5272,10 @@
         <v>133</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C312" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D312" s="3">
         <v>2982.4106621613605</v>
@@ -5286,10 +5286,10 @@
         <v>134</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C313" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D313" s="3">
         <v>5304.939690072616</v>
@@ -5300,10 +5300,10 @@
         <v>135</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C314" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D314" s="3">
         <v>17926.352336969001</v>
@@ -5314,10 +5314,10 @@
         <v>300</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C315" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D315" s="3">
         <v>85146.407516534906</v>
@@ -5328,10 +5328,10 @@
         <v>124</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D316" s="3">
         <v>1771.6436718579969</v>
@@ -5342,10 +5342,10 @@
         <v>125</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C317" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D317" s="3">
         <v>2982.4106621613605</v>
@@ -5356,10 +5356,10 @@
         <v>126</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C318" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D318" s="3">
         <v>5304.939690072616</v>
@@ -5370,10 +5370,10 @@
         <v>127</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C319" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D319" s="3">
         <v>17296.346896362938</v>
@@ -5384,10 +5384,10 @@
         <v>338</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C320" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D320" s="3">
         <v>82146.407516534891</v>
@@ -5398,10 +5398,10 @@
         <v>136</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C321" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D321" s="3">
         <v>1771.6436718579969</v>
@@ -5412,10 +5412,10 @@
         <v>137</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C322" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D322" s="3">
         <v>2982.4106621613605</v>
@@ -5426,10 +5426,10 @@
         <v>138</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C323" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D323" s="3">
         <v>5304.939690072616</v>
@@ -5440,10 +5440,10 @@
         <v>139</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C324" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D324" s="3">
         <v>17296.346896362938</v>
@@ -5454,10 +5454,10 @@
         <v>462</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C325" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D325" s="3">
         <v>82146.407516534891</v>
@@ -5476,10 +5476,10 @@
         <v>108</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C327" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D327" s="3">
         <v>2028.3399992595637</v>
@@ -5490,10 +5490,10 @@
         <v>109</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C328" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D328" s="3">
         <v>3461.9101841609986</v>
@@ -5504,10 +5504,10 @@
         <v>110</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C329" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D329" s="3">
         <v>6148.432955927171</v>
@@ -5518,10 +5518,10 @@
         <v>111</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C330" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D330" s="3">
         <v>19916.8990442637</v>
@@ -5530,10 +5530,10 @@
     <row r="331" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A331" s="4"/>
       <c r="B331" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C331" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D331" s="3">
         <v>94065.470125213425</v>
@@ -5544,10 +5544,10 @@
         <v>33</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C332" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D332" s="3">
         <v>2028.3399992595637</v>
@@ -5558,10 +5558,10 @@
         <v>32</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C333" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D333" s="3">
         <v>3461.9101841609986</v>
@@ -5572,10 +5572,10 @@
         <v>29</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C334" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D334" s="3">
         <v>6148.432955927171</v>
@@ -5586,10 +5586,10 @@
         <v>103</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C335" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D335" s="3">
         <v>19316.89904426369</v>
@@ -5598,10 +5598,10 @@
     <row r="336" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A336" s="4"/>
       <c r="B336" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D336" s="3">
         <v>94065.470125213425</v>
@@ -5612,10 +5612,10 @@
         <v>112</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D337" s="3">
         <v>2028.3399992595637</v>
@@ -5626,10 +5626,10 @@
         <v>113</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D338" s="3">
         <v>3461.9101841609986</v>
@@ -5640,10 +5640,10 @@
         <v>114</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C339" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D339" s="3">
         <v>6148.432955927171</v>
@@ -5654,10 +5654,10 @@
         <v>115</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D340" s="3">
         <v>19916.8990442637</v>
@@ -5666,10 +5666,10 @@
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341" s="4"/>
       <c r="B341" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C341" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D341" s="3">
         <v>94065.470125213425</v>
@@ -5680,10 +5680,10 @@
         <v>104</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C342" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D342" s="3">
         <v>2028.3399992595637</v>
@@ -5694,10 +5694,10 @@
         <v>105</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C343" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D343" s="3">
         <v>3461.9101841609986</v>
@@ -5708,10 +5708,10 @@
         <v>106</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C344" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D344" s="3">
         <v>6148.432955927171</v>
@@ -5722,10 +5722,10 @@
         <v>107</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C345" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D345" s="3">
         <v>19316.89904426369</v>
@@ -5734,10 +5734,10 @@
     <row r="346" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A346" s="4"/>
       <c r="B346" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C346" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D346" s="3">
         <v>94065.470125213425</v>
@@ -5748,10 +5748,10 @@
         <v>116</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C347" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D347" s="3">
         <v>2028.3399992595637</v>
@@ -5762,10 +5762,10 @@
         <v>117</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D348" s="3">
         <v>3461.9101841609986</v>
@@ -5776,10 +5776,10 @@
         <v>118</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D349" s="3">
         <v>6148.432955927171</v>
@@ -5790,10 +5790,10 @@
         <v>119</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D350" s="3">
         <v>19316.89904426369</v>
@@ -5804,10 +5804,10 @@
         <v>301</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C351" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D351" s="3">
         <v>94065.470125213425</v>
@@ -5823,10 +5823,10 @@
         <v>255</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C353" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D353" s="3">
         <v>3544.6859518348588</v>
@@ -5837,10 +5837,10 @@
         <v>256</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C354" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D354" s="3">
         <v>5821.7220375480993</v>
@@ -5851,10 +5851,10 @@
         <v>257</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C355" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D355" s="3">
         <v>9262.6848537145743</v>
@@ -5865,10 +5865,10 @@
         <v>444</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C356" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D356" s="3">
         <v>35827.293703870542</v>
@@ -5887,10 +5887,10 @@
         <v>251</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C358" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D358" s="3">
         <v>1687.0672435726199</v>
@@ -5901,10 +5901,10 @@
         <v>252</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C359" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D359" s="3">
         <v>2891.0213585958691</v>
@@ -5915,10 +5915,10 @@
         <v>253</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C360" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D360" s="3">
         <v>4729.1484708935805</v>
@@ -5929,10 +5929,10 @@
         <v>254</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C361" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D361" s="3">
         <v>15583.530973640052</v>
@@ -5943,10 +5943,10 @@
         <v>359</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C362" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D362" s="3">
         <v>90164.29422555583</v>
@@ -5965,10 +5965,10 @@
         <v>1093</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C364" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D364" s="3">
         <v>2500.8267616597414</v>
@@ -5979,10 +5979,10 @@
         <v>401</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C365" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D365" s="3">
         <v>3979.4181546865634</v>
@@ -5993,10 +5993,10 @@
         <v>402</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D366" s="3">
         <v>6215.3826631888332</v>
@@ -6007,10 +6007,10 @@
         <v>403</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C367" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D367" s="3">
         <v>22310.916095111406</v>
@@ -6021,10 +6021,10 @@
         <v>404</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D368" s="3">
         <v>102805.98646540681</v>
@@ -6043,10 +6043,10 @@
         <v>1092</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D370" s="3">
         <v>3126.5227419003104</v>
@@ -6057,10 +6057,10 @@
         <v>397</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C371" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D371" s="3">
         <v>4964.6147461600522</v>
@@ -6071,10 +6071,10 @@
         <v>398</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C372" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D372" s="3">
         <v>7909.9689941188099</v>
@@ -6085,10 +6085,10 @@
         <v>399</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C373" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D373" s="3">
         <v>28391.511325136118</v>
@@ -6099,10 +6099,10 @@
         <v>400</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C374" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D374" s="3">
         <v>135953.74317014762</v>
@@ -6118,10 +6118,10 @@
         <v>42</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C376" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D376" s="3">
         <v>1621.9792356196428</v>
@@ -6132,10 +6132,10 @@
         <v>41</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C377" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D377" s="3">
         <v>2699.5860410871123</v>
@@ -6146,10 +6146,10 @@
         <v>30</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C378" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D378" s="3">
         <v>5227.576424843649</v>
@@ -6160,10 +6160,10 @@
         <v>35</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C379" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D379" s="3">
         <v>20113.586714324534</v>
@@ -6174,10 +6174,10 @@
         <v>47</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C380" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D380" s="3">
         <v>95527.267629510257</v>
@@ -6196,10 +6196,10 @@
         <v>1088</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C382" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D382" s="3">
         <v>2176.59155426711</v>
@@ -6210,10 +6210,10 @@
         <v>1089</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C383" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D383" s="3">
         <v>3880.7785699264159</v>
@@ -6224,10 +6224,10 @@
         <v>1090</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C384" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D384" s="3">
         <v>6894.7054035375204</v>
@@ -6238,10 +6238,10 @@
         <v>1091</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C385" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D385" s="3">
         <v>25406.466871888453</v>
@@ -6268,10 +6268,10 @@
         <v>46</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C388" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D388" s="3">
         <v>2019.8166318242027</v>
@@ -6282,10 +6282,10 @@
         <v>45</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C389" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D389" s="3">
         <v>3534.2440254252883</v>
@@ -6296,10 +6296,10 @@
         <v>44</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C390" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D390" s="3">
         <v>6527.5962628349316</v>
@@ -6310,10 +6310,10 @@
         <v>43</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C391" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D391" s="3">
         <v>25110.048501303063</v>
@@ -6324,10 +6324,10 @@
         <v>48</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C392" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D392" s="3">
         <v>119288.56730291071</v>
@@ -6343,10 +6343,10 @@
         <v>151</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C394" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D394" s="3">
         <v>912.67723749939489</v>
@@ -6357,10 +6357,10 @@
         <v>163</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C395" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D395" s="3">
         <v>2386.6342428480775</v>
@@ -6371,10 +6371,10 @@
         <v>142</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C396" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D396" s="3">
         <v>912.67723749939489</v>
@@ -6385,10 +6385,10 @@
         <v>154</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C397" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D397" s="3">
         <v>2386.6342428480775</v>
@@ -6399,10 +6399,10 @@
         <v>140</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C398" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D398" s="3">
         <v>912.67723749939489</v>
@@ -6413,10 +6413,10 @@
         <v>152</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C399" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D399" s="3">
         <v>2386.6342428480775</v>
@@ -6427,10 +6427,10 @@
         <v>145</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C400" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D400" s="3">
         <v>912.67723749939489</v>
@@ -6441,10 +6441,10 @@
         <v>157</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C401" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D401" s="3">
         <v>2386.6342428480775</v>
@@ -6455,10 +6455,10 @@
         <v>144</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C402" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D402" s="3">
         <v>912.67723749939489</v>
@@ -6469,10 +6469,10 @@
         <v>156</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C403" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D403" s="3">
         <v>2386.6342428480775</v>
@@ -6483,10 +6483,10 @@
         <v>150</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C404" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D404" s="3">
         <v>912.67723749939489</v>
@@ -6497,10 +6497,10 @@
         <v>162</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C405" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D405" s="3">
         <v>2386.6342428480775</v>
@@ -6511,10 +6511,10 @@
         <v>143</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C406" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D406" s="3">
         <v>912.67723749939489</v>
@@ -6525,10 +6525,10 @@
         <v>155</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C407" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D407" s="3">
         <v>2386.6342428480775</v>
@@ -6539,10 +6539,10 @@
         <v>147</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C408" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D408" s="3">
         <v>912.67723749939489</v>
@@ -6553,10 +6553,10 @@
         <v>159</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C409" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D409" s="3">
         <v>2386.6342428480775</v>
@@ -6567,10 +6567,10 @@
         <v>146</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C410" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D410" s="3">
         <v>912.67723749939489</v>
@@ -6581,10 +6581,10 @@
         <v>158</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C411" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D411" s="3">
         <v>2386.6342428480775</v>
@@ -6595,10 +6595,10 @@
         <v>149</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C412" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D412" s="3">
         <v>912.67723749939489</v>
@@ -6609,10 +6609,10 @@
         <v>161</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C413" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D413" s="3">
         <v>2386.6342428480775</v>
@@ -6623,10 +6623,10 @@
         <v>141</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C414" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D414" s="3">
         <v>912.67723749939489</v>
@@ -6637,10 +6637,10 @@
         <v>153</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C415" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D415" s="3">
         <v>2386.6342428480775</v>
@@ -6651,10 +6651,10 @@
         <v>148</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C416" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D416" s="3">
         <v>912.67723749939489</v>
@@ -6665,10 +6665,10 @@
         <v>160</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C417" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D417" s="3">
         <v>2386.6342428480775</v>
@@ -6692,10 +6692,10 @@
         <v>1129</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C420" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D420" s="3">
         <v>4120.2996753012576</v>
@@ -6706,10 +6706,10 @@
         <v>354</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C421" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D421" s="3">
         <v>6873.9316572008947</v>
@@ -6720,10 +6720,10 @@
         <v>355</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C422" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D422" s="3">
         <v>26050.884862792082</v>
@@ -6734,10 +6734,10 @@
         <v>406</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C423" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D423" s="3">
         <v>123701.47692116747</v>
@@ -6748,10 +6748,10 @@
         <v>1128</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C424" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D424" s="3">
         <v>4120.2996753012576</v>
@@ -6762,10 +6762,10 @@
         <v>353</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C425" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D425" s="3">
         <v>6873.9316572008947</v>
@@ -6776,10 +6776,10 @@
         <v>357</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C426" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D426" s="3">
         <v>26050.884862792082</v>
@@ -6790,10 +6790,10 @@
         <v>405</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C427" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D427" s="3">
         <v>123701.47692116747</v>
@@ -6804,10 +6804,10 @@
         <v>1132</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C428" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D428" s="3">
         <v>4120.2996753012576</v>
@@ -6818,10 +6818,10 @@
         <v>385</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C429" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D429" s="3">
         <v>6873.9316572008947</v>
@@ -6832,10 +6832,10 @@
         <v>386</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C430" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D430" s="3">
         <v>26050.884862792082</v>
@@ -6846,10 +6846,10 @@
         <v>407</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C431" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D431" s="3">
         <v>123701.47692116747</v>
@@ -6860,10 +6860,10 @@
         <v>1106</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C432" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D432" s="3">
         <v>4120.2996753012576</v>
@@ -6874,10 +6874,10 @@
         <v>438</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C433" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D433" s="3">
         <v>6873.9316572008947</v>
@@ -6888,10 +6888,10 @@
         <v>439</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C434" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D434" s="3">
         <v>26050.884862792082</v>
@@ -6902,10 +6902,10 @@
         <v>440</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C435" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D435" s="3">
         <v>123701.47692116747</v>
@@ -6916,10 +6916,10 @@
         <v>1133</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C436" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D436" s="3">
         <v>4120.2996753012576</v>
@@ -6930,10 +6930,10 @@
         <v>356</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C437" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D437" s="3">
         <v>6873.9316572008947</v>
@@ -6944,10 +6944,10 @@
         <v>358</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C438" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D438" s="3">
         <v>26050.884862792082</v>
@@ -6958,10 +6958,10 @@
         <v>408</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C439" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D439" s="3">
         <v>123701.47692116747</v>
@@ -6972,10 +6972,10 @@
         <v>1134</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C440" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D440" s="3">
         <v>4120.2996753012576</v>
@@ -6986,10 +6986,10 @@
         <v>441</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C441" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D441" s="3">
         <v>6873.9316572008947</v>
@@ -7000,10 +7000,10 @@
         <v>442</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C442" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D442" s="3">
         <v>26050.884862792082</v>
@@ -7014,10 +7014,10 @@
         <v>443</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C443" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D443" s="3">
         <v>123701.47692116747</v>
@@ -7028,10 +7028,10 @@
         <v>1130</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C444" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D444" s="3">
         <v>4120.2996753012576</v>
@@ -7042,10 +7042,10 @@
         <v>381</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C445" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D445" s="3">
         <v>6873.9316572008947</v>
@@ -7056,10 +7056,10 @@
         <v>382</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C446" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D446" s="3">
         <v>26050.884862792082</v>
@@ -7070,10 +7070,10 @@
         <v>410</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C447" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D447" s="3">
         <v>123701.47692116747</v>
@@ -7084,10 +7084,10 @@
         <v>1131</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C448" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D448" s="3">
         <v>4120.2996753012576</v>
@@ -7098,10 +7098,10 @@
         <v>383</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C449" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D449" s="3">
         <v>6873.9316572008947</v>
@@ -7112,10 +7112,10 @@
         <v>384</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C450" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D450" s="3">
         <v>26050.884862792082</v>
@@ -7126,10 +7126,10 @@
         <v>409</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C451" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D451" s="3">
         <v>123701.47692116747</v>
@@ -7172,10 +7172,10 @@
         <v>293</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C456" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D456" s="3">
         <v>1437.1571381702802</v>
@@ -7186,10 +7186,10 @@
         <v>292</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C457" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D457" s="3">
         <v>1437.1571381702802</v>
@@ -7200,10 +7200,10 @@
         <v>296</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C458" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D458" s="3">
         <v>1437.1571381702802</v>
@@ -7214,10 +7214,10 @@
         <v>297</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C459" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D459" s="3">
         <v>1437.1571381702802</v>
@@ -7228,10 +7228,10 @@
         <v>298</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C460" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D460" s="3">
         <v>1437.1571381702802</v>
@@ -7242,10 +7242,10 @@
         <v>295</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C461" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D461" s="3">
         <v>1437.1571381702802</v>
@@ -7256,10 +7256,10 @@
         <v>1116</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C462" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D462" s="3">
         <v>1437.1571381702802</v>
@@ -7270,10 +7270,10 @@
         <v>299</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C463" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D463" s="3">
         <v>1437.1571381702802</v>
@@ -7284,10 +7284,10 @@
         <v>294</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C464" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D464" s="3">
         <v>1437.1571381702802</v>
@@ -7303,10 +7303,10 @@
         <v>412</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C466" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D466" s="3">
         <v>2357.8676226407242</v>
@@ -7317,10 +7317,10 @@
         <v>411</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C467" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D467" s="3">
         <v>2357.8676226407242</v>
@@ -7331,10 +7331,10 @@
         <v>414</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C468" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D468" s="3">
         <v>2357.8676226407242</v>
@@ -7343,10 +7343,10 @@
     <row r="469" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A469" s="4"/>
       <c r="B469" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C469" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D469" s="3">
         <v>2357.8676226407242</v>
@@ -7357,10 +7357,10 @@
         <v>415</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C470" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D470" s="3">
         <v>2357.8676226407242</v>
@@ -7371,10 +7371,10 @@
         <v>1119</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C471" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D471" s="3">
         <v>2357.8676226407242</v>
@@ -7385,10 +7385,10 @@
         <v>413</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C472" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D472" s="3">
         <v>2357.8676226407242</v>
@@ -7404,10 +7404,10 @@
         <v>391</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C474" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D474" s="3">
         <v>17309.57154961376</v>
@@ -7418,10 +7418,10 @@
         <v>392</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C475" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D475" s="3">
         <v>42660.727219043358</v>
@@ -7432,10 +7432,10 @@
         <v>393</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C476" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D476" s="3">
         <v>84634.391333306907</v>
@@ -7451,10 +7451,10 @@
         <v>1057</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C478" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D478" s="3">
         <v>6408.4013297654074</v>
@@ -7465,10 +7465,10 @@
         <v>1058</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C479" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D479" s="3">
         <v>18457.131552490024</v>
@@ -7479,10 +7479,10 @@
         <v>1059</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C480" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D480" s="3">
         <v>41211.656547234692</v>
@@ -7493,10 +7493,10 @@
         <v>1060</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C481" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D481" s="3">
         <v>75329.148274876468</v>
@@ -7507,10 +7507,10 @@
         <v>1065</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C482" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D482" s="3">
         <v>6408.4013297654074</v>
@@ -7521,10 +7521,10 @@
         <v>1066</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C483" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D483" s="3">
         <v>18457.131552490024</v>
@@ -7535,10 +7535,10 @@
         <v>1067</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C484" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D484" s="3">
         <v>41211.656547234692</v>
@@ -7549,10 +7549,10 @@
         <v>1068</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C485" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D485" s="3">
         <v>75329.148274876468</v>
@@ -7563,10 +7563,10 @@
         <v>1054</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C486" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D486" s="3">
         <v>6408.4013297654074</v>
@@ -7577,10 +7577,10 @@
         <v>1055</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C487" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D487" s="3">
         <v>18457.131552490024</v>
@@ -7591,10 +7591,10 @@
         <v>1056</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C488" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D488" s="3">
         <v>41211.656547234692</v>
@@ -7605,10 +7605,10 @@
         <v>1046</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C489" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D489" s="3">
         <v>75329.148274876468</v>
@@ -7619,10 +7619,10 @@
         <v>1061</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C490" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D490" s="3">
         <v>6408.4013297654074</v>
@@ -7633,10 +7633,10 @@
         <v>1062</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C491" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D491" s="3">
         <v>18457.131552490024</v>
@@ -7647,10 +7647,10 @@
         <v>1063</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C492" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D492" s="3">
         <v>41211.656547234692</v>
@@ -7661,10 +7661,10 @@
         <v>1064</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C493" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D493" s="3">
         <v>75329.148274876468</v>
@@ -7680,10 +7680,10 @@
         <v>1048</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C495" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D495" s="3">
         <v>11236.073537003045</v>
@@ -7694,10 +7694,10 @@
         <v>1049</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C496" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D496" s="3">
         <v>41612.471073832756</v>
@@ -7708,10 +7708,10 @@
         <v>1050</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C497" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D497" s="3">
         <v>195862.1195863614</v>
@@ -7722,10 +7722,10 @@
         <v>1051</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C498" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D498" s="3">
         <v>11236.073537003045</v>
@@ -7736,10 +7736,10 @@
         <v>1052</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C499" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D499" s="3">
         <v>41612.471073832756</v>
@@ -7750,10 +7750,10 @@
         <v>1053</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C500" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D500" s="3">
         <v>195862.1195863614</v>
@@ -7769,10 +7769,10 @@
         <v>507</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C502" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D502" s="3">
         <v>5442.3542152263126</v>
@@ -7783,10 +7783,10 @@
         <v>1077</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C503" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D503" s="3">
         <v>17417.006385670127</v>
@@ -7797,10 +7797,10 @@
         <v>506</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C504" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D504" s="3">
         <v>5442.3542152263126</v>
@@ -7811,10 +7811,10 @@
         <v>1076</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C505" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D505" s="3">
         <v>17417.006385670127</v>
@@ -7825,10 +7825,10 @@
         <v>508</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C506" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D506" s="3">
         <v>5442.3542152263126</v>
@@ -7839,10 +7839,10 @@
         <v>1078</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C507" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D507" s="3">
         <v>17417.006385670127</v>
@@ -7858,10 +7858,10 @@
         <v>422</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C509" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D509" s="3">
         <v>4744.2485999999999</v>
@@ -7877,10 +7877,10 @@
         <v>502</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C511" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D511" s="3">
         <v>1287.7104176125999</v>
@@ -7891,10 +7891,10 @@
         <v>503</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C512" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D512" s="3">
         <v>1950.0126602178</v>
@@ -7905,10 +7905,10 @@
         <v>504</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C513" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D513" s="3">
         <v>3227.3354277300468</v>
@@ -7919,10 +7919,10 @@
         <v>505</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C514" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D514" s="3">
         <v>5435.7856585479867</v>
@@ -7944,7 +7944,7 @@
     <row r="517" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A517" s="4"/>
       <c r="B517" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C517" s="6"/>
       <c r="D517" s="3">
@@ -7954,7 +7954,7 @@
     <row r="518" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A518" s="4"/>
       <c r="B518" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C518" s="6"/>
       <c r="D518" s="3">
@@ -7972,7 +7972,7 @@
     <row r="520" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A520" s="4"/>
       <c r="B520" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C520" s="6"/>
       <c r="D520" s="3">
@@ -7982,7 +7982,7 @@
     <row r="521" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A521" s="4"/>
       <c r="B521" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C521" s="6"/>
       <c r="D521" s="3">
@@ -7992,7 +7992,7 @@
     <row r="522" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A522" s="4"/>
       <c r="B522" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C522" s="6"/>
       <c r="D522" s="3">
@@ -8032,7 +8032,7 @@
     <row r="527" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A527" s="4"/>
       <c r="B527" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C527" s="6"/>
       <c r="D527" s="3">
@@ -8042,7 +8042,7 @@
     <row r="528" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A528" s="4"/>
       <c r="B528" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C528" s="6"/>
       <c r="D528" s="3">
@@ -8052,7 +8052,7 @@
     <row r="529" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A529" s="4"/>
       <c r="B529" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C529" s="6"/>
       <c r="D529" s="3">
@@ -8062,7 +8062,7 @@
     <row r="530" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A530" s="4"/>
       <c r="B530" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C530" s="6"/>
       <c r="D530" s="3">
@@ -8072,7 +8072,7 @@
     <row r="531" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A531" s="4"/>
       <c r="B531" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C531" s="6"/>
       <c r="D531" s="3">
@@ -8082,7 +8082,7 @@
     <row r="532" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A532" s="4"/>
       <c r="B532" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C532" s="6"/>
       <c r="D532" s="3">
@@ -8100,7 +8100,7 @@
     <row r="534" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A534" s="4"/>
       <c r="B534" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C534" s="6"/>
       <c r="D534" s="3">
@@ -8110,7 +8110,7 @@
     <row r="535" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A535" s="4"/>
       <c r="B535" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C535" s="6"/>
       <c r="D535" s="3">
@@ -8127,7 +8127,7 @@
         <v>1179</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C537" s="6">
         <v>1.6</v>
@@ -8141,7 +8141,7 @@
         <v>1103</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C538" s="6">
         <v>6.2</v>
@@ -8155,7 +8155,7 @@
         <v>1104</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C539" s="6">
         <v>16</v>
@@ -8169,7 +8169,7 @@
         <v>1105</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C540" s="6">
         <v>32</v>
@@ -8188,7 +8188,7 @@
         <v>1084</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C542" s="6">
         <v>0.75</v>
@@ -8202,7 +8202,7 @@
         <v>1085</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C543" s="6">
         <v>2.5</v>
@@ -8216,7 +8216,7 @@
         <v>1086</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C544" s="6">
         <v>0.75</v>
@@ -8230,7 +8230,7 @@
         <v>1087</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C545" s="6">
         <v>2.5</v>
@@ -8244,7 +8244,7 @@
         <v>1202</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C547" s="6">
         <v>1</v>
@@ -8258,7 +8258,7 @@
         <v>1135</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C548" s="6">
         <v>1</v>
